--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_food_wholesalers.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_food_wholesalers.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0453</v>
+        <v>-0.167</v>
       </c>
       <c r="G2">
-        <v>-0.4908675799086758</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H2">
-        <v>-0.4908675799086758</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="I2">
-        <v>-0.5113197933138713</v>
+        <v>-0.05241935483870968</v>
       </c>
       <c r="J2">
-        <v>-0.5113197933138713</v>
+        <v>-0.05241935483870968</v>
       </c>
       <c r="K2">
-        <v>-2.73</v>
+        <v>-3.27</v>
       </c>
       <c r="L2">
-        <v>-0.6232876712328768</v>
+        <v>-1.318548387096774</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.354</v>
+        <v>1.23</v>
       </c>
       <c r="V2">
-        <v>0.01661971830985915</v>
+        <v>0.06473684210526316</v>
       </c>
       <c r="W2">
-        <v>1.3</v>
+        <v>1.003067484662577</v>
       </c>
       <c r="X2">
-        <v>0.07331882294865978</v>
+        <v>0.05995965196265951</v>
       </c>
       <c r="Y2">
-        <v>1.22668117705134</v>
+        <v>0.9431078326999172</v>
       </c>
       <c r="Z2">
-        <v>0.2938433089792355</v>
+        <v>0.1954910925429607</v>
       </c>
       <c r="AA2">
-        <v>-0.1502479000139267</v>
+        <v>-0.01024751694781649</v>
       </c>
       <c r="AB2">
-        <v>0.04651779048180951</v>
+        <v>0.03782406296860871</v>
       </c>
       <c r="AC2">
-        <v>-0.1967656904957362</v>
+        <v>-0.0480715799164252</v>
       </c>
       <c r="AD2">
-        <v>16.3</v>
+        <v>25.9</v>
       </c>
       <c r="AE2">
-        <v>13.49790347357378</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>29.79790347357378</v>
+        <v>25.9</v>
       </c>
       <c r="AG2">
-        <v>29.44390347357378</v>
+        <v>24.67</v>
       </c>
       <c r="AH2">
-        <v>0.5831531520463323</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="AI2">
-        <v>1.124962702438956</v>
+        <v>1.001934235976789</v>
       </c>
       <c r="AJ2">
-        <v>0.5802451419392177</v>
+        <v>0.5649187084955346</v>
       </c>
       <c r="AK2">
-        <v>1.126655400076266</v>
+        <v>1.002030869212023</v>
       </c>
       <c r="AL2">
-        <v>0.6899999999999999</v>
+        <v>0.917</v>
       </c>
       <c r="AM2">
-        <v>0.6899999999999999</v>
+        <v>0.2190000000000001</v>
       </c>
       <c r="AN2">
-        <v>27.16666666666666</v>
+        <v>-25900</v>
       </c>
       <c r="AO2">
-        <v>-2.347826086956522</v>
+        <v>-0.1417666303162486</v>
       </c>
       <c r="AP2">
-        <v>49.0731724559563</v>
+        <v>-24670</v>
       </c>
       <c r="AQ2">
-        <v>-2.347826086956522</v>
+        <v>-0.5936073059360728</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0453</v>
+        <v>-0.167</v>
       </c>
       <c r="G3">
-        <v>-0.4908675799086758</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H3">
-        <v>-0.4908675799086758</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="I3">
-        <v>-0.5113197933138713</v>
+        <v>-0.05241935483870968</v>
       </c>
       <c r="J3">
-        <v>-0.5113197933138713</v>
+        <v>-0.05241935483870968</v>
       </c>
       <c r="K3">
-        <v>-2.73</v>
+        <v>-3.27</v>
       </c>
       <c r="L3">
-        <v>-0.6232876712328768</v>
+        <v>-1.318548387096774</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.354</v>
+        <v>1.23</v>
       </c>
       <c r="V3">
-        <v>0.01661971830985915</v>
+        <v>0.06473684210526316</v>
       </c>
       <c r="W3">
-        <v>1.3</v>
+        <v>1.003067484662577</v>
       </c>
       <c r="X3">
-        <v>0.07331882294865978</v>
+        <v>0.05995965196265951</v>
       </c>
       <c r="Y3">
-        <v>1.22668117705134</v>
+        <v>0.9431078326999172</v>
       </c>
       <c r="Z3">
-        <v>0.2938433089792355</v>
+        <v>0.1954910925429607</v>
       </c>
       <c r="AA3">
-        <v>-0.1502479000139267</v>
+        <v>-0.01024751694781649</v>
       </c>
       <c r="AB3">
-        <v>0.04651779048180951</v>
+        <v>0.03782406296860871</v>
       </c>
       <c r="AC3">
-        <v>-0.1967656904957362</v>
+        <v>-0.0480715799164252</v>
       </c>
       <c r="AD3">
-        <v>16.3</v>
+        <v>25.9</v>
       </c>
       <c r="AE3">
-        <v>13.49790347357378</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>29.79790347357378</v>
+        <v>25.9</v>
       </c>
       <c r="AG3">
-        <v>29.44390347357378</v>
+        <v>24.67</v>
       </c>
       <c r="AH3">
-        <v>0.5831531520463323</v>
+        <v>0.576837416481069</v>
       </c>
       <c r="AI3">
-        <v>1.124962702438956</v>
+        <v>1.001934235976789</v>
       </c>
       <c r="AJ3">
-        <v>0.5802451419392177</v>
+        <v>0.5649187084955346</v>
       </c>
       <c r="AK3">
-        <v>1.126655400076266</v>
+        <v>1.002030869212023</v>
       </c>
       <c r="AL3">
-        <v>0.6899999999999999</v>
+        <v>0.917</v>
       </c>
       <c r="AM3">
-        <v>0.6899999999999999</v>
+        <v>0.2190000000000001</v>
       </c>
       <c r="AN3">
-        <v>27.16666666666666</v>
+        <v>-25900</v>
       </c>
       <c r="AO3">
-        <v>-2.347826086956522</v>
+        <v>-0.1417666303162486</v>
       </c>
       <c r="AP3">
-        <v>49.0731724559563</v>
+        <v>-24670</v>
       </c>
       <c r="AQ3">
-        <v>-2.347826086956522</v>
+        <v>-0.5936073059360728</v>
       </c>
     </row>
   </sheetData>
